--- a/Statistics Python Cheat Sheet.xlsx
+++ b/Statistics Python Cheat Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62243030-BCE6-41B8-9A80-4700426439A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BAFF01-C0CB-485B-A361-932DBC026CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Probabilities" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Statistics Python Cheat Sheet.xlsx
+++ b/Statistics Python Cheat Sheet.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BAFF01-C0CB-485B-A361-932DBC026CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A8EA99-A150-4852-A39E-18D03A4CE90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Probabilities" sheetId="1" r:id="rId1"/>
-    <sheet name="(NAME 2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Regression" sheetId="2" r:id="rId2"/>
     <sheet name="(NAME 3)" sheetId="3" r:id="rId3"/>
     <sheet name="(NAME 4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'(NAME 2)'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'(NAME 3)'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'(NAME 4)'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Probabilities!$A$1:$D$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Regression!$A$1:$D$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Action</t>
   </si>
@@ -170,6 +170,74 @@
 numpy.random.binomial(5,0.5, 1000000)</t>
     </r>
   </si>
+  <si>
+    <t>Import Stats</t>
+  </si>
+  <si>
+    <t>to pull in the stats model needed to do various linear regression (least squares) calculations</t>
+  </si>
+  <si>
+    <t>statsmodel</t>
+  </si>
+  <si>
+    <t>import statsmodel.api as sm</t>
+  </si>
+  <si>
+    <t>Ordinary Least Squares</t>
+  </si>
+  <si>
+    <t>To create the regression model using the ordinary least squares method</t>
+  </si>
+  <si>
+    <t>Fit Model</t>
+  </si>
+  <si>
+    <t>to actually produce the output using the regression model built above (or another model type)</t>
+  </si>
+  <si>
+    <t>model = sm.OLS(df['dependent'], df[['intercept','dependent']])</t>
+  </si>
+  <si>
+    <t>results = model.fit()</t>
+  </si>
+  <si>
+    <t>Show Model</t>
+  </si>
+  <si>
+    <t>to then visualise the model fitness and output</t>
+  </si>
+  <si>
+    <t>results.summary()</t>
+  </si>
+  <si>
+    <t>Normal Distribution</t>
+  </si>
+  <si>
+    <t>To sample a normal distribution using a known mean and standard deviation. Often the mean is set to 0 when doing A/B testing to guage if the actual data point falls within the null normal distribution (null being no difference)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numpy.random.normal(loc=0.0, scale=1.0, size=None)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+numpy.random.normal(0, st. dev, 10000)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +280,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -615,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,11 +787,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -782,16 +865,16 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" style="7" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="8"/>
-    <col min="3" max="3" width="8.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22" style="11" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" style="7" customWidth="1"/>
     <col min="5" max="16384" width="50.7109375" style="3"/>
   </cols>
   <sheetData>
@@ -809,29 +892,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>

--- a/Statistics Python Cheat Sheet.xlsx
+++ b/Statistics Python Cheat Sheet.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A8EA99-A150-4852-A39E-18D03A4CE90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477690CB-4FB3-4037-BFC4-DAA38B4BE13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Probabilities" sheetId="1" r:id="rId1"/>
     <sheet name="Regression" sheetId="2" r:id="rId2"/>
-    <sheet name="(NAME 3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Multiple Regression" sheetId="3" r:id="rId3"/>
     <sheet name="(NAME 4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'(NAME 3)'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'(NAME 4)'!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Multiple Regression'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Probabilities!$A$1:$D$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Regression!$A$1:$D$15</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Action</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Ordinary Least Squares</t>
   </si>
   <si>
-    <t>To create the regression model using the ordinary least squares method</t>
-  </si>
-  <si>
     <t>Fit Model</t>
   </si>
   <si>
@@ -238,6 +235,100 @@
 numpy.random.normal(0, st. dev, 10000)</t>
     </r>
   </si>
+  <si>
+    <t>Multiple Linear</t>
+  </si>
+  <si>
+    <t>Just reference to the fact that you can use the same OLS model to perform multiple linear regression when using only quantitative variables</t>
+  </si>
+  <si>
+    <t>Set Intercept</t>
+  </si>
+  <si>
+    <t>You have to remember that these regression models tend not have an intercept set so default it so default is to create it and set it to 1</t>
+  </si>
+  <si>
+    <t>df['intercept'] = 1</t>
+  </si>
+  <si>
+    <t>model = sm.OLS(df['independent'],df[['intercept','dependent_1','dependent_2','dependent_3']])</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To create the regression model using the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ordinary least squares</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method</t>
+    </r>
+  </si>
+  <si>
+    <t>Matrix Transpose</t>
+  </si>
+  <si>
+    <t>to transpose the arrangement of a matrix, this is used in linear and multi-linear regression</t>
+  </si>
+  <si>
+    <t>Dot Product</t>
+  </si>
+  <si>
+    <t>Invert</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">numpy.matrix.transpose(*axis)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dataframe.transpose()</t>
+    </r>
+  </si>
+  <si>
+    <t>To use matrix maths to multiple a matrix against another matrix ensuring the shapes are the right size beforehand</t>
+  </si>
+  <si>
+    <t>to reverse or product the inverse of a dataframe using basig algebra functions</t>
+  </si>
+  <si>
+    <t>numpy.dot(df_1,df_2)</t>
+  </si>
+  <si>
+    <t>numpy.linalg.inv(df_1)</t>
+  </si>
+  <si>
+    <t>Dummy Variables</t>
+  </si>
+  <si>
+    <t>pandas.get_dummies(df['categorical_column'])</t>
+  </si>
+  <si>
+    <t>To create new columns for each categorical variable within an existing single categorical attribute (these will be sorted alphabetically at first)</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +378,21 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,6 +475,9 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,16 +898,16 @@
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,8 +974,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +983,7 @@
     <col min="1" max="1" width="39" style="7" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="8"/>
     <col min="3" max="3" width="22" style="11" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="88.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="50.7109375" style="3"/>
   </cols>
   <sheetData>
@@ -911,54 +1020,70 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -1021,8 +1146,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,29 +1172,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>

--- a/Statistics Python Cheat Sheet.xlsx
+++ b/Statistics Python Cheat Sheet.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477690CB-4FB3-4037-BFC4-DAA38B4BE13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524D041E-A7F6-4E11-A9B6-F89B324A97F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Probabilities" sheetId="1" r:id="rId1"/>
     <sheet name="Regression" sheetId="2" r:id="rId2"/>
     <sheet name="Multiple Regression" sheetId="3" r:id="rId3"/>
-    <sheet name="(NAME 4)" sheetId="4" r:id="rId4"/>
+    <sheet name="Logistic Regression" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'(NAME 4)'!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Logistic Regression'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Multiple Regression'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Probabilities!$A$1:$D$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Regression!$A$1:$D$15</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Action</t>
   </si>
@@ -192,9 +192,6 @@
     <t>to actually produce the output using the regression model built above (or another model type)</t>
   </si>
   <si>
-    <t>model = sm.OLS(df['dependent'], df[['intercept','dependent']])</t>
-  </si>
-  <si>
     <t>results = model.fit()</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
   </si>
   <si>
     <t>df['intercept'] = 1</t>
-  </si>
-  <si>
-    <t>model = sm.OLS(df['independent'],df[['intercept','dependent_1','dependent_2','dependent_3']])</t>
   </si>
   <si>
     <r>
@@ -328,6 +322,21 @@
   </si>
   <si>
     <t>To create new columns for each categorical variable within an existing single categorical attribute (these will be sorted alphabetically at first)</t>
+  </si>
+  <si>
+    <t>model = sm.OLS(df['dependent'], df[['intercept','independent']])</t>
+  </si>
+  <si>
+    <t>model = sm.OLS(df['dependent'],df[['intercept','independent_1','independent_2','independent_3']])</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Similar to linear regression except uses a log function to limit the responses to between 0 and 1.  This serves essentially as a probability measure applied to some binary categorical outcome (true vs false, approve vs. disapprove etc…)</t>
+  </si>
+  <si>
+    <t>model = sm.Logit(df['dependent'],df[['intercept','independent_1','independent_2','independent_3']])</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,16 +907,16 @@
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,7 +984,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +992,7 @@
     <col min="1" max="1" width="39" style="7" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="8"/>
     <col min="3" max="3" width="22" style="11" customWidth="1"/>
-    <col min="4" max="4" width="88.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="7" customWidth="1"/>
     <col min="5" max="16384" width="50.7109375" style="3"/>
   </cols>
   <sheetData>
@@ -1020,13 +1029,13 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1040,49 +1049,49 @@
         <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,58 +1183,58 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,15 +1310,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="51.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1327,11 +1336,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6"/>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>

--- a/Statistics Python Cheat Sheet.xlsx
+++ b/Statistics Python Cheat Sheet.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524D041E-A7F6-4E11-A9B6-F89B324A97F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C5B6E8-2DFB-40DC-9BF7-E277724603FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Probabilities" sheetId="1" r:id="rId1"/>
-    <sheet name="Regression" sheetId="2" r:id="rId2"/>
-    <sheet name="Multiple Regression" sheetId="3" r:id="rId3"/>
-    <sheet name="Logistic Regression" sheetId="4" r:id="rId4"/>
+    <sheet name="Regression" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Logistic Regression'!$A$1:$D$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Multiple Regression'!$A$1:$D$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Probabilities!$A$1:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Regression!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Probabilities!$A$3:$D$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Regression!$A$3:$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Action</t>
   </si>
@@ -338,6 +334,12 @@
   <si>
     <t>model = sm.Logit(df['dependent'],df[['intercept','independent_1','independent_2','independent_3']])</t>
   </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Probabilities</t>
+  </si>
 </sst>
 </file>
 
@@ -346,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +408,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +427,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,14 +501,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,12 +835,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CC762E-03EC-4CF3-8290-C68B393AB46A}">
   <sheetPr>
+    <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,614 +854,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="12"/>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA275A4-2014-4F4D-B029-214BC618F482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735FCDFF-4B39-4A39-8A7E-6FE17145240D}">
   <sheetPr>
+    <tabColor rgb="FF002060"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39" style="7" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="8"/>
-    <col min="3" max="3" width="22" style="11" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="50.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735FCDFF-4B39-4A39-8A7E-6FE17145240D}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="51.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
+      <c r="D4" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6C71-8E1C-4020-B8E9-7D33298A8D30}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="51.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Statistics Python Cheat Sheet.xlsx
+++ b/Statistics Python Cheat Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C5B6E8-2DFB-40DC-9BF7-E277724603FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2DE634-5D37-4D2A-8153-DFCB91A065BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Probabilities" sheetId="1" r:id="rId1"/>
@@ -507,16 +507,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +841,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,12 +854,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -992,12 +992,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
